--- a/Prototypes/Canola/Kojonup2013.xlsx
+++ b/Prototypes/Canola/Kojonup2013.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lil026\ApsimX\Prototypes\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ApsimX\Prototypes\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733FDCD-9F7C-4478-B06B-32995DE451FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8128EC51-AACC-4DA5-B363-38231532F7D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AD732DD8-A88D-484D-8C08-FD27E0260026}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" xr2:uid="{AD732DD8-A88D-484D-8C08-FD27E0260026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="29">
   <si>
     <t>Location</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>AV_Garnet</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>CB_Atomic</t>
@@ -499,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -514,49 +511,49 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -585,9 +582,6 @@
       <c r="H2" s="1">
         <v>0.68</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
@@ -608,18 +602,6 @@
       </c>
       <c r="P2" s="1">
         <v>62</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -672,18 +654,6 @@
       <c r="P3" s="1">
         <v>93</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
@@ -735,18 +705,6 @@
       <c r="P4" s="1">
         <v>99</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
@@ -798,18 +756,6 @@
       <c r="P5" s="1">
         <v>78</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
@@ -831,27 +777,12 @@
       <c r="F6" s="2">
         <v>41598</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K6" s="1">
         <v>965</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="N6" s="1">
         <v>300</v>
       </c>
@@ -886,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>47</v>
@@ -924,18 +855,6 @@
       <c r="P7" s="1">
         <v>48</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
@@ -949,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
         <v>81</v>
@@ -987,18 +906,6 @@
       <c r="P8" s="1">
         <v>82</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
@@ -1012,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
         <v>104</v>
@@ -1050,18 +957,6 @@
       <c r="P9" s="1">
         <v>72</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
@@ -1075,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
         <v>146</v>
@@ -1113,18 +1008,6 @@
       <c r="P10" s="1">
         <v>62</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
@@ -1138,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>194</v>
@@ -1146,27 +1029,12 @@
       <c r="F11" s="2">
         <v>41598</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K11" s="1">
         <v>906</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="N11" s="1">
         <v>530</v>
       </c>
@@ -1201,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>47</v>
@@ -1239,18 +1107,6 @@
       <c r="P12" s="1">
         <v>100</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
@@ -1264,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1">
         <v>81</v>
@@ -1302,18 +1158,6 @@
       <c r="P13" s="1">
         <v>70</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
@@ -1327,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
         <v>104</v>
@@ -1365,18 +1209,6 @@
       <c r="P14" s="1">
         <v>76</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
@@ -1390,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
         <v>146</v>
@@ -1428,18 +1260,6 @@
       <c r="P15" s="1">
         <v>70</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
@@ -1453,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
         <v>194</v>
@@ -1461,27 +1281,12 @@
       <c r="F16" s="2">
         <v>41598</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K16" s="1">
         <v>916</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="N16" s="1">
         <v>515</v>
       </c>
@@ -1516,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
         <v>47</v>
@@ -1554,18 +1359,6 @@
       <c r="P17" s="1">
         <v>47</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
@@ -1579,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1">
         <v>81</v>
@@ -1617,18 +1410,6 @@
       <c r="P18" s="1">
         <v>64</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
@@ -1642,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
         <v>104</v>
@@ -1680,18 +1461,6 @@
       <c r="P19" s="1">
         <v>75</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
@@ -1705,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
         <v>146</v>
@@ -1743,18 +1512,6 @@
       <c r="P20" s="1">
         <v>70</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
@@ -1768,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
         <v>194</v>
@@ -1776,27 +1533,12 @@
       <c r="F21" s="2">
         <v>41598</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K21" s="1">
         <v>933</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="N21" s="1">
         <v>257</v>
       </c>
@@ -1831,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
         <v>47</v>
@@ -1869,18 +1611,6 @@
       <c r="P22" s="1">
         <v>48</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
@@ -1894,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
         <v>81</v>
@@ -1932,18 +1662,6 @@
       <c r="P23" s="1">
         <v>83</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
@@ -1957,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
         <v>104</v>
@@ -1995,18 +1713,6 @@
       <c r="P24" s="1">
         <v>107</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
@@ -2020,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
         <v>146</v>
@@ -2058,18 +1764,6 @@
       <c r="P25" s="1">
         <v>83</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
@@ -2083,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
         <v>194</v>
@@ -2091,27 +1785,12 @@
       <c r="F26" s="2">
         <v>41598</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K26" s="1">
         <v>1032</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="N26" s="1">
         <v>333</v>
       </c>
@@ -2146,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <v>47</v>
@@ -2184,18 +1863,6 @@
       <c r="P27" s="1">
         <v>42</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
@@ -2209,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
         <v>81</v>
@@ -2247,18 +1914,6 @@
       <c r="P28" s="1">
         <v>58</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
@@ -2272,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
         <v>104</v>
@@ -2310,18 +1965,6 @@
       <c r="P29" s="1">
         <v>78</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
@@ -2335,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
         <v>146</v>
@@ -2373,18 +2016,6 @@
       <c r="P30" s="1">
         <v>59</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
@@ -2398,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
         <v>194</v>
@@ -2406,27 +2037,12 @@
       <c r="F31" s="2">
         <v>41598</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K31" s="1">
         <v>1169</v>
       </c>
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="N31" s="1">
         <v>431</v>
       </c>
@@ -2469,45 +2085,6 @@
       <c r="F32" s="2">
         <v>41496</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="T32" s="1">
         <v>6</v>
       </c>
@@ -2524,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1">
         <v>92</v>
@@ -2532,45 +2109,6 @@
       <c r="F33" s="2">
         <v>41496</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="T33" s="1">
         <v>6</v>
       </c>
@@ -2587,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
         <v>94</v>
@@ -2595,45 +2133,6 @@
       <c r="F34" s="2">
         <v>41498</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="T34" s="1">
         <v>6</v>
       </c>
@@ -2650,7 +2149,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1">
         <v>88</v>
@@ -2658,45 +2157,6 @@
       <c r="F35" s="2">
         <v>41492</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="T35" s="1">
         <v>6</v>
       </c>
@@ -2713,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1">
         <v>96</v>
@@ -2721,45 +2181,6 @@
       <c r="F36" s="2">
         <v>41500</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="T36" s="1">
         <v>6</v>
       </c>
@@ -2776,52 +2197,13 @@
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
         <v>94</v>
       </c>
       <c r="F37" s="2">
         <v>41498</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="T37" s="1">
         <v>6</v>
@@ -2836,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -2846,48 +2228,6 @@
       </c>
       <c r="F38" s="2">
         <v>41451</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2899,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
@@ -2910,47 +2250,11 @@
       <c r="F39" s="2">
         <v>41485</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K39" s="1">
         <v>111</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P39" s="1">
         <v>59</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2962,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>6</v>
@@ -2973,47 +2277,11 @@
       <c r="F40" s="2">
         <v>41508</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K40" s="1">
         <v>214</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P40" s="1">
         <v>70</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3025,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>6</v>
@@ -3065,18 +2333,6 @@
       </c>
       <c r="P41" s="1">
         <v>58</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3088,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
@@ -3099,26 +2355,11 @@
       <c r="F42" s="2">
         <v>41598</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K42" s="1">
         <v>901</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N42" s="1">
         <v>411</v>
@@ -3151,58 +2392,16 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
         <v>47</v>
       </c>
       <c r="F43" s="2">
         <v>41451</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3214,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
         <v>81</v>
@@ -3225,47 +2424,11 @@
       <c r="F44" s="2">
         <v>41485</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K44" s="1">
         <v>100</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P44" s="1">
         <v>41</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3277,10 +2440,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1">
         <v>104</v>
@@ -3288,47 +2451,11 @@
       <c r="F45" s="2">
         <v>41508</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K45" s="1">
         <v>185</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P45" s="1">
         <v>49</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3340,10 +2467,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1">
         <v>146</v>
@@ -3380,18 +2507,6 @@
       </c>
       <c r="P46" s="1">
         <v>38</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -3403,10 +2518,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1">
         <v>194</v>
@@ -3414,26 +2529,11 @@
       <c r="F47" s="2">
         <v>41598</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K47" s="1">
         <v>753</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N47" s="1">
         <v>405</v>
@@ -3466,58 +2566,16 @@
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1">
         <v>47</v>
       </c>
       <c r="F48" s="2">
         <v>41451</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -3529,10 +2587,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1">
         <v>81</v>
@@ -3540,47 +2598,11 @@
       <c r="F49" s="2">
         <v>41485</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K49" s="1">
         <v>90</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P49" s="1">
         <v>58</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -3592,10 +2614,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
         <v>104</v>
@@ -3603,47 +2625,11 @@
       <c r="F50" s="2">
         <v>41508</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K50" s="1">
         <v>196</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P50" s="1">
         <v>65</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -3655,10 +2641,10 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1">
         <v>146</v>
@@ -3695,18 +2681,6 @@
       </c>
       <c r="P51" s="1">
         <v>75</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -3718,10 +2692,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1">
         <v>194</v>
@@ -3729,26 +2703,11 @@
       <c r="F52" s="2">
         <v>41598</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K52" s="1">
         <v>818</v>
       </c>
       <c r="L52" s="1">
         <v>0</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N52" s="1">
         <v>208</v>
@@ -3781,58 +2740,16 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1">
         <v>47</v>
       </c>
       <c r="F53" s="2">
         <v>41451</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -3844,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1">
         <v>81</v>
@@ -3855,47 +2772,11 @@
       <c r="F54" s="2">
         <v>41485</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K54" s="1">
         <v>79</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P54" s="1">
         <v>52</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -3907,10 +2788,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1">
         <v>104</v>
@@ -3918,47 +2799,11 @@
       <c r="F55" s="2">
         <v>41508</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K55" s="1">
         <v>184</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P55" s="1">
         <v>40</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -3970,10 +2815,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="1">
         <v>146</v>
@@ -4010,18 +2855,6 @@
       </c>
       <c r="P56" s="1">
         <v>44</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4033,10 +2866,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1">
         <v>194</v>
@@ -4044,26 +2877,11 @@
       <c r="F57" s="2">
         <v>41598</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K57" s="1">
         <v>882</v>
       </c>
       <c r="L57" s="1">
         <v>0</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N57" s="1">
         <v>274</v>
@@ -4096,58 +2914,16 @@
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1">
         <v>47</v>
       </c>
       <c r="F58" s="2">
         <v>41451</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4159,10 +2935,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1">
         <v>81</v>
@@ -4170,47 +2946,11 @@
       <c r="F59" s="2">
         <v>41485</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K59" s="1">
         <v>66</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P59" s="1">
         <v>35</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4222,10 +2962,10 @@
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1">
         <v>104</v>
@@ -4233,47 +2973,11 @@
       <c r="F60" s="2">
         <v>41508</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K60" s="1">
         <v>198</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P60" s="1">
         <v>43</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -4285,10 +2989,10 @@
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1">
         <v>146</v>
@@ -4325,18 +3029,6 @@
       </c>
       <c r="P61" s="1">
         <v>33</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -4348,10 +3040,10 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1">
         <v>194</v>
@@ -4359,26 +3051,11 @@
       <c r="F62" s="2">
         <v>41598</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K62" s="1">
         <v>1117</v>
       </c>
       <c r="L62" s="1">
         <v>0</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N62" s="1">
         <v>409</v>
@@ -4411,58 +3088,16 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
         <v>47</v>
       </c>
       <c r="F63" s="2">
         <v>41451</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -4474,10 +3109,10 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1">
         <v>81</v>
@@ -4485,47 +3120,11 @@
       <c r="F64" s="2">
         <v>41485</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K64" s="1">
         <v>95</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P64" s="1">
         <v>47</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -4537,10 +3136,10 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1">
         <v>104</v>
@@ -4548,47 +3147,11 @@
       <c r="F65" s="2">
         <v>41508</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K65" s="1">
         <v>196</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="P65" s="1">
         <v>61</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -4600,10 +3163,10 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1">
         <v>146</v>
@@ -4640,18 +3203,6 @@
       </c>
       <c r="P66" s="1">
         <v>55</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -4663,10 +3214,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
         <v>194</v>
@@ -4674,26 +3225,11 @@
       <c r="F67" s="2">
         <v>41598</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K67" s="1">
         <v>828</v>
       </c>
       <c r="L67" s="1">
         <v>0</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="N67" s="1">
         <v>259</v>
